--- a/searches/sec7_results/outline_7.xlsx
+++ b/searches/sec7_results/outline_7.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,74 +434,64 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>SECTION</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>SUBSECTION</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>POINT</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>QUERY</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>DOI</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>PAPER_TITLE</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>RELEVANCE_SCORE</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>FULL_TEXT</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>BIBTEX</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>PDF_LOCATION</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>JOURNAL</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>CITATION_COUNT</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>ADOI_URL</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>document_title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>section_title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>point_text</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>doi</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>full_text</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bibtex</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pdf_location</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>journal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>citation_count</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>relevance_score</t>
         </is>
       </c>
     </row>
@@ -511,7 +513,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({field study} OR {pilot project}) AND ({precision irrigation} OR {site-specific irrigation}) AND ({deployment challenges} OR {implementation experiences}) AND ({results} OR {outcomes}))</t>
+          <t>TITLE-ABS-KEY(({case study} OR {real-world implementation}) AND ({end-to-end automation} OR {fully automated system}) AND ({irrigation management} OR {precision agriculture}) AND ({deployment} OR {implementation}))</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -520,16 +522,16 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -549,7 +551,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({real-world validation} OR {practical verification}) AND ({automated irrigation management} OR {smart irrigation control}) AND ({farming practices} OR {agricultural operations}) AND ({results analysis} OR {performance evaluation}))</t>
+          <t>TITLE-ABS-KEY(({success story} OR {successful application}) AND ({smart irrigation} OR {IoT-based irrigation}) AND ({agricultural settings} OR {farming contexts}) AND ({technology integration} OR {system integration}))</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -558,16 +560,16 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -587,7 +589,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({successful integration} OR {effective integration}) AND ({IoT technologies} OR {AI techniques}) AND ({precision agriculture} OR {smart farming}) AND ({case study} OR {real-world example}))</t>
+          <t>TITLE-ABS-KEY(({real-world example} OR {practical implementation}) AND ({irrigation automation} OR {autonomous irrigation}) AND ({crop production} OR {crop management}) AND ({water conservation} OR {water use efficiency}))</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -596,16 +598,16 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -625,7 +627,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({case analysis} OR {implementation analysis}) AND ({automated irrigation system} OR {smart irrigation system}) AND ({agricultural domains} OR {farming sectors}) AND ({benefits} OR {advantages}))</t>
+          <t>TITLE-ABS(({field study} OR {pilot project}) AND ({precision irrigation} OR {site-specific irrigation}) AND ({deployment challenges} OR {implementation experiences}) AND ({results} OR {outcomes}))</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -634,16 +636,16 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -663,7 +665,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({case study} OR {real-world implementation}) AND ({end-to-end automation} OR {fully automated system}) AND ({irrigation management} OR {precision agriculture}) AND ({deployment} OR {implementation}))</t>
+          <t>TITLE-ABS-KEY(({case analysis} OR {implementation analysis}) AND ({automated irrigation system} OR {smart irrigation system}) AND ({agricultural domains} OR {farming sectors}) AND ({benefits} OR {advantages}))</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -672,16 +674,16 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -701,7 +703,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({deployment strategy} OR {implementation approach}) AND ({autonomous irrigation} OR {self-adaptive irrigation}) AND ({agricultural production} OR {crop cultivation}) AND ({case description} OR {implementation details}))</t>
+          <t>TITLE-ABS-KEY(({real-world deployment} OR {practical application}) AND ({end-to-end automation} OR {fully automated system}) AND ({irrigation control} OR {irrigation scheduling}) AND ({performance evaluation} OR {efficiency assessment}))</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -710,16 +712,16 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -739,7 +741,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({real-world deployment} OR {practical application}) AND ({end-to-end automation} OR {fully automated system}) AND ({irrigation control} OR {irrigation scheduling}) AND ({performance evaluation} OR {efficiency assessment}))</t>
+          <t>TITLE-ABS(({successful integration} OR {effective integration}) AND ({IoT technologies} OR {AI techniques}) AND ({precision agriculture} OR {smart farming}) AND ({case study} OR {real-world example}))</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -748,16 +750,16 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -777,7 +779,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({real-world example} OR {practical implementation}) AND ({irrigation automation} OR {autonomous irrigation}) AND ({crop production} OR {crop management}) AND ({water conservation} OR {water use efficiency}))</t>
+          <t>TITLE-ABS-KEY(({deployment strategy} OR {implementation approach}) AND ({autonomous irrigation} OR {self-adaptive irrigation}) AND ({agricultural production} OR {crop cultivation}) AND ({case description} OR {implementation details}))</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -786,16 +788,16 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -815,7 +817,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({success story} OR {successful application}) AND ({smart irrigation} OR {IoT-based irrigation}) AND ({agricultural settings} OR {farming contexts}) AND ({technology integration} OR {system integration}))</t>
+          <t>TITLE-ABS(({real-world validation} OR {practical verification}) AND ({automated irrigation management} OR {smart irrigation control}) AND ({farming practices} OR {agricultural operations}) AND ({results analysis} OR {performance evaluation}))</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -824,16 +826,16 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -862,16 +864,16 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -886,12 +888,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>â€¢ Emphasis on how each case study demonstrates the effectiveness and efficiency of integrated, real-time automated irrigation management</t>
+          <t>â€¢ Lessons learned, challenges encountered, and best practices derived from real-world implementations</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({case study emphasis} OR {implementation emphasis}) AND ({efficiency gains} OR {effectiveness gains}) AND ({end-to-end automation} OR {seamless integration}) AND ({irrigation optimization} OR {irrigation scheduling}))</t>
+          <t>TITLE-ABS-KEY(({lessons learned} OR {key takeaways}) AND ({real-world implementation} OR {practical deployment}) AND ({automated irrigation} OR {smart irrigation}) AND ({challenges} OR {obstacles}))</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -900,16 +902,16 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -924,12 +926,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>â€¢ Emphasis on how each case study demonstrates the effectiveness and efficiency of integrated, real-time automated irrigation management</t>
+          <t>â€¢ Lessons learned, challenges encountered, and best practices derived from real-world implementations</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({case study illustration} OR {real-world illustration}) AND ({efficiency enhancement} OR {productivity enhancement}) AND ({integrated irrigation system} OR {holistic irrigation system}) AND ({automated decision-making} OR {autonomous decision-making}))</t>
+          <t>TITLE-ABS-KEY(({best practices} OR {implementation guidelines}) AND ({end-to-end automation} OR {fully automated system}) AND ({irrigation management} OR {precision agriculture}) AND ({real-world experiences} OR {practical insights}))</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -938,16 +940,16 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -962,12 +964,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>â€¢ Emphasis on how each case study demonstrates the effectiveness and efficiency of integrated, real-time automated irrigation management</t>
+          <t>â€¢ Lessons learned, challenges encountered, and best practices derived from real-world implementations</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({case study verification} OR {real-world verification}) AND ({crop quality improvement} OR {crop health improvement}) AND ({integrated sensor network} OR {integrated IoT network}) AND ({automated irrigation scheduling} OR {autonomous irrigation scheduling}))</t>
+          <t>TITLE-ABS-KEY(({challenges encountered} OR {implementation hurdles}) AND ({IoT-based irrigation} OR {AI-driven irrigation}) AND ({deployment} OR {implementation}) AND ({solutions} OR {remedies}))</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -976,16 +978,16 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1000,12 +1002,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>â€¢ Emphasis on how each case study demonstrates the effectiveness and efficiency of integrated, real-time automated irrigation management</t>
+          <t>â€¢ Lessons learned, challenges encountered, and best practices derived from real-world implementations</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({case study analysis} OR {case study evaluation}) AND ({effectiveness demonstration} OR {efficiency demonstration}) AND ({integrated irrigation management} OR {real-time irrigation control}) AND ({automated system} OR {autonomous system}))</t>
+          <t>TITLE-ABS(({lessons derived} OR {insights gained}) AND ({precision irrigation} OR {site-specific irrigation}) AND ({real-world applications} OR {practical implementations}) AND ({overcoming challenges} OR {addressing issues}))</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1014,16 +1016,16 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1038,12 +1040,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>â€¢ Emphasis on how each case study demonstrates the effectiveness and efficiency of integrated, real-time automated irrigation management</t>
+          <t>â€¢ Lessons learned, challenges encountered, and best practices derived from real-world implementations</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({case study demonstration} OR {implementation demonstration}) AND ({sustainability benefits} OR {environmental benefits}) AND ({real-time monitoring} OR {real-time adjustment}) AND ({precision agriculture} OR {smart farming}))</t>
+          <t>TITLE-ABS-KEY(({implementation best practices} OR {deployment guidelines}) AND ({automated irrigation system} OR {smart irrigation system}) AND ({real-world settings} OR {practical contexts}) AND ({success factors} OR {enabling conditions}))</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1052,16 +1054,16 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1076,12 +1078,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>â€¢ Emphasis on how each case study demonstrates the effectiveness and efficiency of integrated, real-time automated irrigation management</t>
+          <t>â€¢ Lessons learned, challenges encountered, and best practices derived from real-world implementations</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({case study highlight} OR {real-world example highlight}) AND ({resource utilization improvement} OR {water productivity improvement}) AND ({automated irrigation management} OR {autonomous irrigation control}) AND ({integrated technologies} OR {synergistic technologies}))</t>
+          <t>TITLE-ABS-KEY(({lessons learned synthesis} OR {best practices compilation}) AND ({end-to-end automation} OR {fully automated system}) AND ({irrigation control} OR {irrigation scheduling}) AND ({multiple case studies} OR {diverse implementations}))</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1090,16 +1092,16 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1114,12 +1116,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>â€¢ Emphasis on how each case study demonstrates the effectiveness and efficiency of integrated, real-time automated irrigation management</t>
+          <t>â€¢ Lessons learned, challenges encountered, and best practices derived from real-world implementations</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({case study proof} OR {implementation proof}) AND ({water savings} OR {energy savings}) AND ({real-time data analysis} OR {real-time data utilization}) AND ({smart irrigation management} OR {intelligent irrigation control}))</t>
+          <t>TITLE-ABS(({challenges analysis} OR {obstacles assessment}) AND ({IoT technologies} OR {AI techniques}) AND ({precision agriculture} OR {smart farming}) AND ({real-world deployments} OR {practical applications}))</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1128,16 +1130,16 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1152,12 +1154,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>â€¢ Emphasis on how each case study demonstrates the effectiveness and efficiency of integrated, real-time automated irrigation management</t>
+          <t>â€¢ Lessons learned, challenges encountered, and best practices derived from real-world implementations</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({case study showcase} OR {implementation showcase}) AND ({water conservation benefits} OR {crop yield benefits}) AND ({real-time management} OR {dynamic management}) AND ({IoT-based system} OR {AI-driven system}))</t>
+          <t>TITLE-ABS-KEY(({implementation insights} OR {deployment lessons}) AND ({autonomous irrigation} OR {self-adaptive irrigation}) AND ({agricultural production} OR {crop cultivation}) AND ({overcoming hurdles} OR {addressing challenges}))</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1166,16 +1168,16 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1190,12 +1192,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>â€¢ Emphasis on how each case study demonstrates the effectiveness and efficiency of integrated, real-time automated irrigation management</t>
+          <t>â€¢ Lessons learned, challenges encountered, and best practices derived from real-world implementations</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({case study validation} OR {implementation validation}) AND ({operational efficiency} OR {management effectiveness}) AND ({real-time optimization} OR {dynamic optimization}) AND ({end-to-end automated irrigation} OR {fully integrated irrigation system}))</t>
+          <t>TITLE-ABS(({best practices formulation} OR {implementation guidelines development}) AND ({automated irrigation management} OR {smart irrigation control}) AND ({real-world experiences} OR {practical insights}) AND ({success strategies} OR {enabling factors}))</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1204,16 +1206,16 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1228,12 +1230,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>â€¢ Emphasis on how each case study demonstrates the effectiveness and efficiency of integrated, real-time automated irrigation management</t>
+          <t>â€¢ Lessons learned, challenges encountered, and best practices derived from real-world implementations</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({real-world evidence} OR {practical proof}) AND ({performance improvement} OR {productivity enhancement}) AND ({smart irrigation} OR {precision irrigation}) AND ({integrated approach} OR {holistic approach}))</t>
+          <t>TITLE-ABS-KEY(({lessons learned integration} OR {best practices synthesis}) AND ({end-to-end automated irrigation} OR {fully autonomous irrigation}) AND ({various case studies} OR {multiple implementations}) AND ({challenges encountered} OR {issues addressed}))</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1242,16 +1244,16 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1266,12 +1268,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>â€¢ Lessons learned, challenges encountered, and best practices derived from real-world implementations</t>
+          <t>â€¢ Emphasis on how each case study demonstrates the effectiveness and efficiency of integrated, real-time automated irrigation management</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({best practices formulation} OR {implementation guidelines development}) AND ({automated irrigation management} OR {smart irrigation control}) AND ({real-world experiences} OR {practical insights}) AND ({success strategies} OR {enabling factors}))</t>
+          <t>TITLE-ABS-KEY(({case study analysis} OR {case study evaluation}) AND ({effectiveness demonstration} OR {efficiency demonstration}) AND ({integrated irrigation management} OR {real-time irrigation control}) AND ({automated system} OR {autonomous system}))</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1280,16 +1282,16 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1304,12 +1306,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>â€¢ Lessons learned, challenges encountered, and best practices derived from real-world implementations</t>
+          <t>â€¢ Emphasis on how each case study demonstrates the effectiveness and efficiency of integrated, real-time automated irrigation management</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({challenges analysis} OR {obstacles assessment}) AND ({IoT technologies} OR {AI techniques}) AND ({precision agriculture} OR {smart farming}) AND ({real-world deployments} OR {practical applications}))</t>
+          <t>TITLE-ABS-KEY(({real-world evidence} OR {practical proof}) AND ({performance improvement} OR {productivity enhancement}) AND ({smart irrigation} OR {precision irrigation}) AND ({integrated approach} OR {holistic approach}))</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1318,16 +1320,16 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1342,12 +1344,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>â€¢ Lessons learned, challenges encountered, and best practices derived from real-world implementations</t>
+          <t>â€¢ Emphasis on how each case study demonstrates the effectiveness and efficiency of integrated, real-time automated irrigation management</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({lessons derived} OR {insights gained}) AND ({precision irrigation} OR {site-specific irrigation}) AND ({real-world applications} OR {practical implementations}) AND ({overcoming challenges} OR {addressing issues}))</t>
+          <t>TITLE-ABS-KEY(({case study showcase} OR {implementation showcase}) AND ({water conservation benefits} OR {crop yield benefits}) AND ({real-time management} OR {dynamic management}) AND ({IoT-based system} OR {AI-driven system}))</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1356,16 +1358,16 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1380,12 +1382,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>â€¢ Lessons learned, challenges encountered, and best practices derived from real-world implementations</t>
+          <t>â€¢ Emphasis on how each case study demonstrates the effectiveness and efficiency of integrated, real-time automated irrigation management</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({best practices} OR {implementation guidelines}) AND ({end-to-end automation} OR {fully automated system}) AND ({irrigation management} OR {precision agriculture}) AND ({real-world experiences} OR {practical insights}))</t>
+          <t>TITLE-ABS(({case study emphasis} OR {implementation emphasis}) AND ({efficiency gains} OR {effectiveness gains}) AND ({end-to-end automation} OR {seamless integration}) AND ({irrigation optimization} OR {irrigation scheduling}))</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1394,16 +1396,16 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1418,12 +1420,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>â€¢ Lessons learned, challenges encountered, and best practices derived from real-world implementations</t>
+          <t>â€¢ Emphasis on how each case study demonstrates the effectiveness and efficiency of integrated, real-time automated irrigation management</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({challenges encountered} OR {implementation hurdles}) AND ({IoT-based irrigation} OR {AI-driven irrigation}) AND ({deployment} OR {implementation}) AND ({solutions} OR {remedies}))</t>
+          <t>TITLE-ABS-KEY(({case study highlight} OR {real-world example highlight}) AND ({resource utilization improvement} OR {water productivity improvement}) AND ({automated irrigation management} OR {autonomous irrigation control}) AND ({integrated technologies} OR {synergistic technologies}))</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1432,16 +1434,16 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1456,12 +1458,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>â€¢ Lessons learned, challenges encountered, and best practices derived from real-world implementations</t>
+          <t>â€¢ Emphasis on how each case study demonstrates the effectiveness and efficiency of integrated, real-time automated irrigation management</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({implementation best practices} OR {deployment guidelines}) AND ({automated irrigation system} OR {smart irrigation system}) AND ({real-world settings} OR {practical contexts}) AND ({success factors} OR {enabling conditions}))</t>
+          <t>TITLE-ABS-KEY(({case study demonstration} OR {implementation demonstration}) AND ({sustainability benefits} OR {environmental benefits}) AND ({real-time monitoring} OR {real-time adjustment}) AND ({precision agriculture} OR {smart farming}))</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1470,16 +1472,16 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1494,12 +1496,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>â€¢ Lessons learned, challenges encountered, and best practices derived from real-world implementations</t>
+          <t>â€¢ Emphasis on how each case study demonstrates the effectiveness and efficiency of integrated, real-time automated irrigation management</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({implementation insights} OR {deployment lessons}) AND ({autonomous irrigation} OR {self-adaptive irrigation}) AND ({agricultural production} OR {crop cultivation}) AND ({overcoming hurdles} OR {addressing challenges}))</t>
+          <t>TITLE-ABS(({case study illustration} OR {real-world illustration}) AND ({efficiency enhancement} OR {productivity enhancement}) AND ({integrated irrigation system} OR {holistic irrigation system}) AND ({automated decision-making} OR {autonomous decision-making}))</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1508,16 +1510,16 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1532,12 +1534,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>â€¢ Lessons learned, challenges encountered, and best practices derived from real-world implementations</t>
+          <t>â€¢ Emphasis on how each case study demonstrates the effectiveness and efficiency of integrated, real-time automated irrigation management</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({lessons learned integration} OR {best practices synthesis}) AND ({end-to-end automated irrigation} OR {fully autonomous irrigation}) AND ({various case studies} OR {multiple implementations}) AND ({challenges encountered} OR {issues addressed}))</t>
+          <t>TITLE-ABS-KEY(({case study proof} OR {implementation proof}) AND ({water savings} OR {energy savings}) AND ({real-time data analysis} OR {real-time data utilization}) AND ({smart irrigation management} OR {intelligent irrigation control}))</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1546,16 +1548,16 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1570,12 +1572,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>â€¢ Lessons learned, challenges encountered, and best practices derived from real-world implementations</t>
+          <t>â€¢ Emphasis on how each case study demonstrates the effectiveness and efficiency of integrated, real-time automated irrigation management</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({lessons learned synthesis} OR {best practices compilation}) AND ({end-to-end automation} OR {fully automated system}) AND ({irrigation control} OR {irrigation scheduling}) AND ({multiple case studies} OR {diverse implementations}))</t>
+          <t>TITLE-ABS(({case study verification} OR {real-world verification}) AND ({crop quality improvement} OR {crop health improvement}) AND ({integrated sensor network} OR {integrated IoT network}) AND ({automated irrigation scheduling} OR {autonomous irrigation scheduling}))</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1584,16 +1586,16 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1608,12 +1610,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>â€¢ Lessons learned, challenges encountered, and best practices derived from real-world implementations</t>
+          <t>â€¢ Emphasis on how each case study demonstrates the effectiveness and efficiency of integrated, real-time automated irrigation management</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({lessons learned} OR {key takeaways}) AND ({real-world implementation} OR {practical deployment}) AND ({automated irrigation} OR {smart irrigation}) AND ({challenges} OR {obstacles}))</t>
+          <t>TITLE-ABS-KEY(({case study validation} OR {implementation validation}) AND ({operational efficiency} OR {management effectiveness}) AND ({real-time optimization} OR {dynamic optimization}) AND ({end-to-end automated irrigation} OR {fully integrated irrigation system}))</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1622,16 +1624,16 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1646,12 +1648,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>â€¢ Based on the questions addressed, propose new research directions and unanswered questions</t>
+          <t>â€¢ Summarize the key insights gained from the question-driven review, emphasizing how each section contributes to the overarching goal of achieving real-time, end-to-end automation in irrigation management</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({future research opportunities} OR {emerging research areas}) AND ({review synthesis} OR {review summary}) AND ({precision irrigation} OR {site-specific irrigation}) AND ({real-time control} OR {dynamic control}))</t>
+          <t>TITLE-ABS-KEY(({review summary} OR {review synthesis}) AND ({key insights} OR {main findings}) AND ({real-time automation} OR {end-to-end automation}) AND ({irrigation management} OR {precision agriculture}))</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1660,16 +1662,16 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1684,12 +1686,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>â€¢ Based on the questions addressed, propose new research directions and unanswered questions</t>
+          <t>â€¢ Summarize the key insights gained from the question-driven review, emphasizing how each section contributes to the overarching goal of achieving real-time, end-to-end automation in irrigation management</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({future research suggestions} OR {emerging research suggestions}) AND ({review summary} OR {review synthesis}) AND ({precision irrigation systems} OR {site-specific irrigation systems}) AND ({end-to-end optimization} OR {seamless optimization}))</t>
+          <t>TITLE-ABS-KEY(({section contributions} OR {thematic contributions}) AND ({overarching goal} OR {ultimate objective}) AND ({smart irrigation} OR {intelligent irrigation}) AND ({integrated systems} OR {holistic systems}))</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1698,16 +1700,16 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1722,12 +1724,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>â€¢ Based on the questions addressed, propose new research directions and unanswered questions</t>
+          <t>â€¢ Summarize the key insights gained from the question-driven review, emphasizing how each section contributes to the overarching goal of achieving real-time, end-to-end automation in irrigation management</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({unanswered research questions} OR {open research questions}) AND ({review conclusions} OR {review takeaways}) AND ({IoT-based irrigation} OR {AI-driven irrigation}) AND ({real-time monitoring} OR {real-time decision-making}))</t>
+          <t>TITLE-ABS-KEY(({insights integration} OR {findings integration}) AND ({real-time control} OR {dynamic control}) AND ({irrigation optimization} OR {irrigation efficiency}) AND ({automated management} OR {autonomous management}))</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1736,16 +1738,16 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1760,12 +1762,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>â€¢ Based on the questions addressed, propose new research directions and unanswered questions</t>
+          <t>â€¢ Summarize the key insights gained from the question-driven review, emphasizing how each section contributes to the overarching goal of achieving real-time, end-to-end automation in irrigation management</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({new research directions} OR {future research avenues}) AND ({questions addressed} OR {review findings}) AND ({real-time automation} OR {end-to-end automation}) AND ({irrigation management} OR {precision agriculture}))</t>
+          <t>TITLE-ABS(({knowledge synthesis} OR {understanding synthesis}) AND ({end-to-end automation} OR {seamless automation}) AND ({precision irrigation} OR {site-specific irrigation}) AND ({progress summary} OR {advancement summary}))</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1774,16 +1776,16 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1798,12 +1800,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>â€¢ Based on the questions addressed, propose new research directions and unanswered questions</t>
+          <t>â€¢ Summarize the key insights gained from the question-driven review, emphasizing how each section contributes to the overarching goal of achieving real-time, end-to-end automation in irrigation management</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({research direction proposal} OR {research avenue proposal}) AND ({review findings} OR {review insights}) AND ({smart farming} OR {precision agriculture}) AND ({end-to-end integration} OR {holistic integration}))</t>
+          <t>TITLE-ABS-KEY(({key takeaways} OR {main conclusions}) AND ({real-time monitoring} OR {real-time decision-making}) AND ({irrigation scheduling} OR {irrigation control}) AND ({automated systems} OR {autonomous systems}))</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1812,16 +1814,16 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1836,12 +1838,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>â€¢ Based on the questions addressed, propose new research directions and unanswered questions</t>
+          <t>â€¢ Summarize the key insights gained from the question-driven review, emphasizing how each section contributes to the overarching goal of achieving real-time, end-to-end automation in irrigation management</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({research gap identification} OR {literature gap identification}) AND ({knowledge synthesis} OR {understanding synthesis}) AND ({irrigation performance} OR {irrigation productivity}) AND ({automated management} OR {autonomous management}))</t>
+          <t>TITLE-ABS-KEY(({insights summarization} OR {findings summarization}) AND ({end-to-end integration} OR {holistic integration}) AND ({smart farming} OR {precision agriculture}) AND ({irrigation management} OR {water management}))</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1850,16 +1852,16 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1874,12 +1876,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>â€¢ Based on the questions addressed, propose new research directions and unanswered questions</t>
+          <t>â€¢ Summarize the key insights gained from the question-driven review, emphasizing how each section contributes to the overarching goal of achieving real-time, end-to-end automation in irrigation management</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({research proposals} OR {research suggestions}) AND ({knowledge gaps} OR {literature limitations}) AND ({irrigation optimization} OR {irrigation efficiency}) AND ({automated management} OR {autonomous management}))</t>
+          <t>TITLE-ABS(({section synthesis} OR {thematic synthesis}) AND ({overarching contribution} OR {ultimate contribution}) AND ({IoT-based irrigation} OR {AI-driven irrigation}) AND ({automation goal} OR {autonomy goal}))</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1888,16 +1890,16 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1912,12 +1914,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>â€¢ Based on the questions addressed, propose new research directions and unanswered questions</t>
+          <t>â€¢ Summarize the key insights gained from the question-driven review, emphasizing how each section contributes to the overarching goal of achieving real-time, end-to-end automation in irrigation management</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({unanswered questions} OR {open questions}) AND ({review insights} OR {review conclusions}) AND ({smart irrigation} OR {intelligent irrigation}) AND ({integrated systems} OR {holistic systems}))</t>
+          <t>TITLE-ABS-KEY(({knowledge integration} OR {understanding integration}) AND ({real-time automation} OR {dynamic automation}) AND ({irrigation performance} OR {irrigation productivity}) AND ({integrated management} OR {holistic management}))</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1926,16 +1928,16 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1950,12 +1952,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>â€¢ Based on the questions addressed, propose new research directions and unanswered questions</t>
+          <t>â€¢ Summarize the key insights gained from the question-driven review, emphasizing how each section contributes to the overarching goal of achieving real-time, end-to-end automation in irrigation management</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({unexplored aspects} OR {underexplored aspects}) AND ({questions addressed} OR {issues addressed}) AND ({irrigation scheduling} OR {irrigation control}) AND ({automated systems} OR {autonomous systems}))</t>
+          <t>TITLE-ABS(({key insights summary} OR {main findings summary}) AND ({end-to-end optimization} OR {seamless optimization}) AND ({precision irrigation systems} OR {site-specific irrigation systems}) AND ({progress overview} OR {advancement overview}))</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1964,16 +1966,16 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1988,12 +1990,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>â€¢ Based on the questions addressed, propose new research directions and unanswered questions</t>
+          <t>â€¢ Summarize the key insights gained from the question-driven review, emphasizing how each section contributes to the overarching goal of achieving real-time, end-to-end automation in irrigation management</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({unexplored research areas} OR {underexplored research areas}) AND ({questions addressed} OR {issues addressed}) AND ({irrigation efficiency} OR {water use efficiency}) AND ({fully automated systems} OR {fully autonomous systems}))</t>
+          <t>TITLE-ABS-KEY(({review conclusions} OR {review takeaways}) AND ({real-time control} OR {real-time decision support}) AND ({irrigation efficiency} OR {water use efficiency}) AND ({fully automated systems} OR {fully autonomous systems}))</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2002,16 +2004,16 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2026,12 +2028,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>â€¢ Emphasize the need for further innovation and exploration in real-time, automated irrigation systems</t>
+          <t>â€¢ Based on the questions addressed, propose new research directions and unanswered questions</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({cutting-edge innovations} OR {pioneering innovations}) AND ({precision irrigation management} OR {site-specific irrigation management}) AND ({breakthrough technologies} OR {disruptive technologies}) AND ({crop water requirements} OR {irrigation water requirements}))</t>
+          <t>TITLE-ABS-KEY(({new research directions} OR {future research avenues}) AND ({questions addressed} OR {review findings}) AND ({real-time automation} OR {end-to-end automation}) AND ({irrigation management} OR {precision agriculture}))</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2040,16 +2042,16 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2064,12 +2066,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>â€¢ Emphasize the need for further innovation and exploration in real-time, automated irrigation systems</t>
+          <t>â€¢ Based on the questions addressed, propose new research directions and unanswered questions</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({cutting-edge research} OR {pioneering research}) AND ({precision irrigation technologies} OR {site-specific irrigation technologies}) AND ({technological breakthroughs} OR {scientific breakthroughs}) AND ({crop yield improvement} OR {crop quality improvement}))</t>
+          <t>TITLE-ABS-KEY(({unanswered questions} OR {open questions}) AND ({review insights} OR {review conclusions}) AND ({smart irrigation} OR {intelligent irrigation}) AND ({integrated systems} OR {holistic systems}))</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2078,16 +2080,16 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2102,12 +2104,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>â€¢ Emphasize the need for further innovation and exploration in real-time, automated irrigation systems</t>
+          <t>â€¢ Based on the questions addressed, propose new research directions and unanswered questions</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({exploration emphasis} OR {exploration importance}) AND ({smart farming systems} OR {precision agriculture systems}) AND ({upcoming challenges} OR {future opportunities}) AND ({sustainable intensification} OR {ecological intensification}))</t>
+          <t>TITLE-ABS-KEY(({research proposals} OR {research suggestions}) AND ({knowledge gaps} OR {literature limitations}) AND ({irrigation optimization} OR {irrigation efficiency}) AND ({automated management} OR {autonomous management}))</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2116,16 +2118,16 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2140,12 +2142,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>â€¢ Emphasize the need for further innovation and exploration in real-time, automated irrigation systems</t>
+          <t>â€¢ Based on the questions addressed, propose new research directions and unanswered questions</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({further innovation} OR {continued innovation}) AND ({real-time irrigation systems} OR {automated irrigation systems}) AND ({technological advancements} OR {emerging technologies}) AND ({irrigation management} OR {precision agriculture}))</t>
+          <t>TITLE-ABS(({future research opportunities} OR {emerging research areas}) AND ({review synthesis} OR {review summary}) AND ({precision irrigation} OR {site-specific irrigation}) AND ({real-time control} OR {dynamic control}))</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2154,16 +2156,16 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2178,12 +2180,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>â€¢ Emphasize the need for further innovation and exploration in real-time, automated irrigation systems</t>
+          <t>â€¢ Based on the questions addressed, propose new research directions and unanswered questions</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({innovation emphasis} OR {innovation importance}) AND ({real-time monitoring} OR {real-time control}) AND ({technological innovations} OR {scientific innovations}) AND ({irrigation scheduling} OR {irrigation decision support}))</t>
+          <t>TITLE-ABS-KEY(({unexplored aspects} OR {underexplored aspects}) AND ({questions addressed} OR {issues addressed}) AND ({irrigation scheduling} OR {irrigation control}) AND ({automated systems} OR {autonomous systems}))</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -2192,16 +2194,16 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2216,12 +2218,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>â€¢ Emphasize the need for further innovation and exploration in real-time, automated irrigation systems</t>
+          <t>â€¢ Based on the questions addressed, propose new research directions and unanswered questions</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({inventive approaches} OR {groundbreaking approaches}) AND ({fully automated irrigation} OR {fully autonomous irrigation}) AND ({future directions} OR {future prospects}) AND ({agricultural water management} OR {irrigation water management}))</t>
+          <t>TITLE-ABS-KEY(({research direction proposal} OR {research avenue proposal}) AND ({review findings} OR {review insights}) AND ({smart farming} OR {precision agriculture}) AND ({end-to-end integration} OR {holistic integration}))</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -2230,16 +2232,16 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2254,12 +2256,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>â€¢ Emphasize the need for further innovation and exploration in real-time, automated irrigation systems</t>
+          <t>â€¢ Based on the questions addressed, propose new research directions and unanswered questions</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({inventive solutions} OR {groundbreaking solutions}) AND ({IoT-based irrigation} OR {AI-driven irrigation}) AND ({future trends} OR {emerging trends}) AND ({agricultural resilience} OR {agricultural adaptability}))</t>
+          <t>TITLE-ABS(({unanswered research questions} OR {open research questions}) AND ({review conclusions} OR {review takeaways}) AND ({IoT-based irrigation} OR {AI-driven irrigation}) AND ({real-time monitoring} OR {real-time decision-making}))</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2268,16 +2270,16 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2292,12 +2294,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>â€¢ Emphasize the need for further innovation and exploration in real-time, automated irrigation systems</t>
+          <t>â€¢ Based on the questions addressed, propose new research directions and unanswered questions</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({novel approaches} OR {innovative approaches}) AND ({irrigation automation} OR {irrigation optimization}) AND ({research frontiers} OR {research boundaries}) AND ({water conservation} OR {water use efficiency}))</t>
+          <t>TITLE-ABS-KEY(({research gap identification} OR {literature gap identification}) AND ({knowledge synthesis} OR {understanding synthesis}) AND ({irrigation performance} OR {irrigation productivity}) AND ({automated management} OR {autonomous management}))</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2306,16 +2308,16 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2330,12 +2332,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>â€¢ Emphasize the need for further innovation and exploration in real-time, automated irrigation systems</t>
+          <t>â€¢ Based on the questions addressed, propose new research directions and unanswered questions</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({novel techniques} OR {innovative techniques}) AND ({irrigation performance optimization} OR {irrigation productivity optimization}) AND ({research advancements} OR {technological advancements}) AND ({water productivity} OR {water footprint}))</t>
+          <t>TITLE-ABS(({future research suggestions} OR {emerging research suggestions}) AND ({review summary} OR {review synthesis}) AND ({precision irrigation systems} OR {site-specific irrigation systems}) AND ({end-to-end optimization} OR {seamless optimization}))</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -2344,16 +2346,16 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2368,12 +2370,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>â€¢ Emphasize the need for further innovation and exploration in real-time, automated irrigation systems</t>
+          <t>â€¢ Based on the questions addressed, propose new research directions and unanswered questions</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({ongoing exploration} OR {continued exploration}) AND ({smart irrigation solutions} OR {intelligent irrigation solutions}) AND ({future challenges} OR {evolving challenges}) AND ({agricultural sustainability} OR {agricultural productivity}))</t>
+          <t>TITLE-ABS-KEY(({unexplored research areas} OR {underexplored research areas}) AND ({questions addressed} OR {issues addressed}) AND ({irrigation efficiency} OR {water use efficiency}) AND ({fully automated systems} OR {fully autonomous systems}))</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -2382,16 +2384,16 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2406,12 +2408,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>â€¢ Highlight the need for collaborative research efforts across disciplines, such as computer science, agricultural engineering, and environmental science, to address the complex challenges of automated irrigation systems</t>
+          <t>â€¢ Identify key research gaps and propose concrete research questions and hypotheses for advancing the field of real-time, automated irrigation management</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({collaborative approach} OR {integrative approach}) AND ({environmental science} OR {ecology}) AND ({agricultural sciences} OR {agricultural technology}) AND ({real-time irrigation control} OR {dynamic irrigation control}))</t>
+          <t>TITLE-ABS-KEY(({research gap identification} OR {knowledge gap identification}) AND ({concrete research questions} OR {specific research questions}) AND ({real-time irrigation management} OR {automated irrigation control}) AND ({advancing the field} OR {pushing boundaries}))</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -2420,16 +2422,16 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2444,12 +2446,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>â€¢ Highlight the need for collaborative research efforts across disciplines, such as computer science, agricultural engineering, and environmental science, to address the complex challenges of automated irrigation systems</t>
+          <t>â€¢ Identify key research gaps and propose concrete research questions and hypotheses for advancing the field of real-time, automated irrigation management</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({collaborative solutions} OR {integrative solutions}) AND ({cyberphysical systems} OR {embedded systems}) AND ({crop physiology} OR {plant physiology}) AND ({IoT-based irrigation management} OR {AI-driven irrigation management}))</t>
+          <t>TITLE-ABS-KEY(({research hypotheses} OR {testable hypotheses}) AND ({review findings} OR {review insights}) AND ({smart irrigation systems} OR {intelligent irrigation systems}) AND ({future studies} OR {upcoming research}))</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2458,16 +2460,16 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2482,12 +2484,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>â€¢ Highlight the need for collaborative research efforts across disciplines, such as computer science, agricultural engineering, and environmental science, to address the complex challenges of automated irrigation systems</t>
+          <t>â€¢ Identify key research gaps and propose concrete research questions and hypotheses for advancing the field of real-time, automated irrigation management</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({cross-disciplinary approach} OR {convergent approach}) AND ({wireless sensor networks} OR {sensor data fusion}) AND ({agricultural economics} OR {agribusiness}) AND ({precision irrigation technologies} OR {site-specific irrigation technologies}))</t>
+          <t>TITLE-ABS-KEY(({key research gaps} OR {critical research gaps}) AND ({research question formulation} OR {hypothesis formulation}) AND ({irrigation optimization} OR {irrigation efficiency}) AND ({real-time automation} OR {end-to-end automation}))</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -2496,16 +2498,16 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2520,12 +2522,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>â€¢ Highlight the need for collaborative research efforts across disciplines, such as computer science, agricultural engineering, and environmental science, to address the complex challenges of automated irrigation systems</t>
+          <t>â€¢ Identify key research gaps and propose concrete research questions and hypotheses for advancing the field of real-time, automated irrigation management</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({collaborative research needs} OR {interdisciplinary research needs}) AND ({artificial intelligence applications} OR {machine learning applications}) AND ({agricultural water management} OR {irrigation water management}) AND ({fully automated irrigation systems} OR {fully autonomous irrigation systems}))</t>
+          <t>TITLE-ABS(({pressing challenges} OR {promising opportunities}) AND ({review synthesis} OR {review summary}) AND ({precision irrigation management} OR {site-specific irrigation management}) AND ({research advancement} OR {field advancement}))</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -2534,16 +2536,16 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2558,12 +2560,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>â€¢ Highlight the need for collaborative research efforts across disciplines, such as computer science, agricultural engineering, and environmental science, to address the complex challenges of automated irrigation systems</t>
+          <t>â€¢ Identify key research gaps and propose concrete research questions and hypotheses for advancing the field of real-time, automated irrigation management</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({collaborative research} OR {interdisciplinary research}) AND ({computer science} OR {artificial intelligence}) AND ({agricultural engineering} OR {irrigation engineering}) AND ({automated irrigation systems} OR {smart irrigation systems}))</t>
+          <t>TITLE-ABS-KEY(({research gap analysis} OR {knowledge gap analysis}) AND ({concrete research hypotheses} OR {specific research hypotheses}) AND ({irrigation scheduling} OR {irrigation decision support}) AND ({automated systems} OR {autonomous systems}))</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -2572,16 +2574,16 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2596,12 +2598,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>â€¢ Highlight the need for collaborative research efforts across disciplines, such as computer science, agricultural engineering, and environmental science, to address the complex challenges of automated irrigation systems</t>
+          <t>â€¢ Identify key research gaps and propose concrete research questions and hypotheses for advancing the field of real-time, automated irrigation management</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({cross-disciplinary research} OR {transdisciplinary research}) AND ({data analytics} OR {big data}) AND ({agricultural sustainability} OR {agroecology}) AND ({smart farming systems} OR {intelligent farming systems}))</t>
+          <t>TITLE-ABS-KEY(({research question proposal} OR {hypothesis proposal}) AND ({review findings} OR {review insights}) AND ({smart farming systems} OR {precision agriculture systems}) AND ({real-time integration} OR {end-to-end integration}))</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -2610,16 +2612,16 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2634,12 +2636,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>â€¢ Highlight the need for collaborative research efforts across disciplines, such as computer science, agricultural engineering, and environmental science, to address the complex challenges of automated irrigation systems</t>
+          <t>â€¢ Identify key research gaps and propose concrete research questions and hypotheses for advancing the field of real-time, automated irrigation management</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({interdisciplinary collaboration} OR {multidisciplinary collaboration}) AND ({cloud computing} OR {edge computing}) AND ({agricultural meteorology} OR {agrometeorology}) AND ({irrigation performance optimization} OR {irrigation productivity optimization}))</t>
+          <t>TITLE-ABS(({key research challenges} OR {critical research challenges}) AND ({research gap identification} OR {knowledge gap identification}) AND ({IoT-based irrigation management} OR {AI-driven irrigation management}) AND ({field advancement} OR {knowledge advancement}))</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -2648,16 +2650,16 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2672,12 +2674,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>â€¢ Highlight the need for collaborative research efforts across disciplines, such as computer science, agricultural engineering, and environmental science, to address the complex challenges of automated irrigation systems</t>
+          <t>â€¢ Identify key research gaps and propose concrete research questions and hypotheses for advancing the field of real-time, automated irrigation management</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({interdisciplinary efforts} OR {multidisciplinary efforts}) AND ({robotics} OR {automation engineering}) AND ({water resource management} OR {hydrology}) AND ({precision irrigation systems} OR {site-specific irrigation systems}))</t>
+          <t>TITLE-ABS-KEY(({promising research areas} OR {high-potential research areas}) AND ({research question formulation} OR {hypothesis formulation}) AND ({irrigation performance optimization} OR {irrigation productivity optimization}) AND ({automated control} OR {autonomous control}))</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -2686,16 +2688,16 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2710,12 +2712,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>â€¢ Highlight the need for collaborative research efforts across disciplines, such as computer science, agricultural engineering, and environmental science, to address the complex challenges of automated irrigation systems</t>
+          <t>â€¢ Identify key research gaps and propose concrete research questions and hypotheses for advancing the field of real-time, automated irrigation management</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({multidisciplinary collaboration} OR {cross-disciplinary collaboration}) AND ({data science} OR {machine learning}) AND ({agronomy} OR {crop science}) AND ({irrigation management} OR {precision agriculture}))</t>
+          <t>TITLE-ABS(({pressing research issues} OR {critical research issues}) AND ({review synthesis} OR {review summary}) AND ({precision irrigation technologies} OR {site-specific irrigation technologies}) AND ({real-time decision support} OR {dynamic decision support}))</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -2724,16 +2726,16 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2748,12 +2750,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>â€¢ Highlight the need for collaborative research efforts across disciplines, such as computer science, agricultural engineering, and environmental science, to address the complex challenges of automated irrigation systems</t>
+          <t>â€¢ Identify key research gaps and propose concrete research questions and hypotheses for advancing the field of real-time, automated irrigation management</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({transdisciplinary research} OR {convergent research}) AND ({software engineering} OR {information technology}) AND ({soil science} OR {plant science}) AND ({irrigation optimization} OR {irrigation efficiency}))</t>
+          <t>TITLE-ABS-KEY(({research gap prioritization} OR {knowledge gap prioritization}) AND ({concrete research questions} OR {specific research hypotheses}) AND ({irrigation efficiency improvement} OR {water use efficiency improvement}) AND ({fully automated management} OR {fully autonomous management}))</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -2762,16 +2764,16 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2786,12 +2788,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>â€¢ Identify key research gaps and propose concrete research questions and hypotheses for advancing the field of real-time, automated irrigation management</t>
+          <t>â€¢ Highlight the need for collaborative research efforts across disciplines, such as computer science, agricultural engineering, and environmental science, to address the complex challenges of automated irrigation systems</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({key research challenges} OR {critical research challenges}) AND ({research gap identification} OR {knowledge gap identification}) AND ({IoT-based irrigation management} OR {AI-driven irrigation management}) AND ({field advancement} OR {knowledge advancement}))</t>
+          <t>TITLE-ABS-KEY(({collaborative research} OR {interdisciplinary research}) AND ({computer science} OR {artificial intelligence}) AND ({agricultural engineering} OR {irrigation engineering}) AND ({automated irrigation systems} OR {smart irrigation systems}))</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -2800,16 +2802,16 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2824,12 +2826,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>â€¢ Identify key research gaps and propose concrete research questions and hypotheses for advancing the field of real-time, automated irrigation management</t>
+          <t>â€¢ Highlight the need for collaborative research efforts across disciplines, such as computer science, agricultural engineering, and environmental science, to address the complex challenges of automated irrigation systems</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({pressing challenges} OR {promising opportunities}) AND ({review synthesis} OR {review summary}) AND ({precision irrigation management} OR {site-specific irrigation management}) AND ({research advancement} OR {field advancement}))</t>
+          <t>TITLE-ABS-KEY(({multidisciplinary collaboration} OR {cross-disciplinary collaboration}) AND ({data science} OR {machine learning}) AND ({agronomy} OR {crop science}) AND ({irrigation management} OR {precision agriculture}))</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -2838,16 +2840,16 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2862,12 +2864,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>â€¢ Identify key research gaps and propose concrete research questions and hypotheses for advancing the field of real-time, automated irrigation management</t>
+          <t>â€¢ Highlight the need for collaborative research efforts across disciplines, such as computer science, agricultural engineering, and environmental science, to address the complex challenges of automated irrigation systems</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({pressing research issues} OR {critical research issues}) AND ({review synthesis} OR {review summary}) AND ({precision irrigation technologies} OR {site-specific irrigation technologies}) AND ({real-time decision support} OR {dynamic decision support}))</t>
+          <t>TITLE-ABS-KEY(({transdisciplinary research} OR {convergent research}) AND ({software engineering} OR {information technology}) AND ({soil science} OR {plant science}) AND ({irrigation optimization} OR {irrigation efficiency}))</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -2876,16 +2878,16 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2900,12 +2902,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>â€¢ Identify key research gaps and propose concrete research questions and hypotheses for advancing the field of real-time, automated irrigation management</t>
+          <t>â€¢ Highlight the need for collaborative research efforts across disciplines, such as computer science, agricultural engineering, and environmental science, to address the complex challenges of automated irrigation systems</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({key research gaps} OR {critical research gaps}) AND ({research question formulation} OR {hypothesis formulation}) AND ({irrigation optimization} OR {irrigation efficiency}) AND ({real-time automation} OR {end-to-end automation}))</t>
+          <t>TITLE-ABS(({collaborative approach} OR {integrative approach}) AND ({environmental science} OR {ecology}) AND ({agricultural sciences} OR {agricultural technology}) AND ({real-time irrigation control} OR {dynamic irrigation control}))</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -2914,16 +2916,16 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2938,12 +2940,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>â€¢ Identify key research gaps and propose concrete research questions and hypotheses for advancing the field of real-time, automated irrigation management</t>
+          <t>â€¢ Highlight the need for collaborative research efforts across disciplines, such as computer science, agricultural engineering, and environmental science, to address the complex challenges of automated irrigation systems</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({promising research areas} OR {high-potential research areas}) AND ({research question formulation} OR {hypothesis formulation}) AND ({irrigation performance optimization} OR {irrigation productivity optimization}) AND ({automated control} OR {autonomous control}))</t>
+          <t>TITLE-ABS-KEY(({interdisciplinary efforts} OR {multidisciplinary efforts}) AND ({robotics} OR {automation engineering}) AND ({water resource management} OR {hydrology}) AND ({precision irrigation systems} OR {site-specific irrigation systems}))</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -2952,16 +2954,16 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2976,12 +2978,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>â€¢ Identify key research gaps and propose concrete research questions and hypotheses for advancing the field of real-time, automated irrigation management</t>
+          <t>â€¢ Highlight the need for collaborative research efforts across disciplines, such as computer science, agricultural engineering, and environmental science, to address the complex challenges of automated irrigation systems</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({research gap analysis} OR {knowledge gap analysis}) AND ({concrete research hypotheses} OR {specific research hypotheses}) AND ({irrigation scheduling} OR {irrigation decision support}) AND ({automated systems} OR {autonomous systems}))</t>
+          <t>TITLE-ABS-KEY(({cross-disciplinary research} OR {transdisciplinary research}) AND ({data analytics} OR {big data}) AND ({agricultural sustainability} OR {agroecology}) AND ({smart farming systems} OR {intelligent farming systems}))</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -2990,16 +2992,16 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3014,12 +3016,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>â€¢ Identify key research gaps and propose concrete research questions and hypotheses for advancing the field of real-time, automated irrigation management</t>
+          <t>â€¢ Highlight the need for collaborative research efforts across disciplines, such as computer science, agricultural engineering, and environmental science, to address the complex challenges of automated irrigation systems</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({research gap identification} OR {knowledge gap identification}) AND ({concrete research questions} OR {specific research questions}) AND ({real-time irrigation management} OR {automated irrigation control}) AND ({advancing the field} OR {pushing boundaries}))</t>
+          <t>TITLE-ABS(({collaborative solutions} OR {integrative solutions}) AND ({cyberphysical systems} OR {embedded systems}) AND ({crop physiology} OR {plant physiology}) AND ({IoT-based irrigation management} OR {AI-driven irrigation management}))</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -3028,16 +3030,16 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3052,12 +3054,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>â€¢ Identify key research gaps and propose concrete research questions and hypotheses for advancing the field of real-time, automated irrigation management</t>
+          <t>â€¢ Highlight the need for collaborative research efforts across disciplines, such as computer science, agricultural engineering, and environmental science, to address the complex challenges of automated irrigation systems</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({research gap prioritization} OR {knowledge gap prioritization}) AND ({concrete research questions} OR {specific research hypotheses}) AND ({irrigation efficiency improvement} OR {water use efficiency improvement}) AND ({fully automated management} OR {fully autonomous management}))</t>
+          <t>TITLE-ABS-KEY(({interdisciplinary collaboration} OR {multidisciplinary collaboration}) AND ({cloud computing} OR {edge computing}) AND ({agricultural meteorology} OR {agrometeorology}) AND ({irrigation performance optimization} OR {irrigation productivity optimization}))</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -3066,16 +3068,16 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3090,12 +3092,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>â€¢ Identify key research gaps and propose concrete research questions and hypotheses for advancing the field of real-time, automated irrigation management</t>
+          <t>â€¢ Highlight the need for collaborative research efforts across disciplines, such as computer science, agricultural engineering, and environmental science, to address the complex challenges of automated irrigation systems</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({research hypotheses} OR {testable hypotheses}) AND ({review findings} OR {review insights}) AND ({smart irrigation systems} OR {intelligent irrigation systems}) AND ({future studies} OR {upcoming research}))</t>
+          <t>TITLE-ABS(({cross-disciplinary approach} OR {convergent approach}) AND ({wireless sensor networks} OR {sensor data fusion}) AND ({agricultural economics} OR {agribusiness}) AND ({precision irrigation technologies} OR {site-specific irrigation technologies}))</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -3104,16 +3106,16 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3128,12 +3130,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>â€¢ Identify key research gaps and propose concrete research questions and hypotheses for advancing the field of real-time, automated irrigation management</t>
+          <t>â€¢ Highlight the need for collaborative research efforts across disciplines, such as computer science, agricultural engineering, and environmental science, to address the complex challenges of automated irrigation systems</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({research question proposal} OR {hypothesis proposal}) AND ({review findings} OR {review insights}) AND ({smart farming systems} OR {precision agriculture systems}) AND ({real-time integration} OR {end-to-end integration}))</t>
+          <t>TITLE-ABS-KEY(({collaborative research needs} OR {interdisciplinary research needs}) AND ({artificial intelligence applications} OR {machine learning applications}) AND ({agricultural water management} OR {irrigation water management}) AND ({fully automated irrigation systems} OR {fully autonomous irrigation systems}))</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -3142,16 +3144,16 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3166,12 +3168,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>â€¢ Summarize the key insights gained from the question-driven review, emphasizing how each section contributes to the overarching goal of achieving real-time, end-to-end automation in irrigation management</t>
+          <t>â€¢ Emphasize the need for further innovation and exploration in real-time, automated irrigation systems</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({key insights summary} OR {main findings summary}) AND ({end-to-end optimization} OR {seamless optimization}) AND ({precision irrigation systems} OR {site-specific irrigation systems}) AND ({progress overview} OR {advancement overview}))</t>
+          <t>TITLE-ABS-KEY(({further innovation} OR {continued innovation}) AND ({real-time irrigation systems} OR {automated irrigation systems}) AND ({technological advancements} OR {emerging technologies}) AND ({irrigation management} OR {precision agriculture}))</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -3180,16 +3182,16 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3204,12 +3206,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>â€¢ Summarize the key insights gained from the question-driven review, emphasizing how each section contributes to the overarching goal of achieving real-time, end-to-end automation in irrigation management</t>
+          <t>â€¢ Emphasize the need for further innovation and exploration in real-time, automated irrigation systems</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({knowledge synthesis} OR {understanding synthesis}) AND ({end-to-end automation} OR {seamless automation}) AND ({precision irrigation} OR {site-specific irrigation}) AND ({progress summary} OR {advancement summary}))</t>
+          <t>TITLE-ABS-KEY(({ongoing exploration} OR {continued exploration}) AND ({smart irrigation solutions} OR {intelligent irrigation solutions}) AND ({future challenges} OR {evolving challenges}) AND ({agricultural sustainability} OR {agricultural productivity}))</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -3218,16 +3220,16 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3242,12 +3244,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>â€¢ Summarize the key insights gained from the question-driven review, emphasizing how each section contributes to the overarching goal of achieving real-time, end-to-end automation in irrigation management</t>
+          <t>â€¢ Emphasize the need for further innovation and exploration in real-time, automated irrigation systems</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({section synthesis} OR {thematic synthesis}) AND ({overarching contribution} OR {ultimate contribution}) AND ({IoT-based irrigation} OR {AI-driven irrigation}) AND ({automation goal} OR {autonomy goal}))</t>
+          <t>TITLE-ABS-KEY(({novel approaches} OR {innovative approaches}) AND ({irrigation automation} OR {irrigation optimization}) AND ({research frontiers} OR {research boundaries}) AND ({water conservation} OR {water use efficiency}))</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -3256,16 +3258,16 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3280,12 +3282,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>â€¢ Summarize the key insights gained from the question-driven review, emphasizing how each section contributes to the overarching goal of achieving real-time, end-to-end automation in irrigation management</t>
+          <t>â€¢ Emphasize the need for further innovation and exploration in real-time, automated irrigation systems</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({insights integration} OR {findings integration}) AND ({real-time control} OR {dynamic control}) AND ({irrigation optimization} OR {irrigation efficiency}) AND ({automated management} OR {autonomous management}))</t>
+          <t>TITLE-ABS(({cutting-edge research} OR {pioneering research}) AND ({precision irrigation technologies} OR {site-specific irrigation technologies}) AND ({technological breakthroughs} OR {scientific breakthroughs}) AND ({crop yield improvement} OR {crop quality improvement}))</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -3294,16 +3296,16 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3318,12 +3320,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>â€¢ Summarize the key insights gained from the question-driven review, emphasizing how each section contributes to the overarching goal of achieving real-time, end-to-end automation in irrigation management</t>
+          <t>â€¢ Emphasize the need for further innovation and exploration in real-time, automated irrigation systems</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({insights summarization} OR {findings summarization}) AND ({end-to-end integration} OR {holistic integration}) AND ({smart farming} OR {precision agriculture}) AND ({irrigation management} OR {water management}))</t>
+          <t>TITLE-ABS-KEY(({inventive solutions} OR {groundbreaking solutions}) AND ({IoT-based irrigation} OR {AI-driven irrigation}) AND ({future trends} OR {emerging trends}) AND ({agricultural resilience} OR {agricultural adaptability}))</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -3332,16 +3334,16 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3356,12 +3358,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>â€¢ Summarize the key insights gained from the question-driven review, emphasizing how each section contributes to the overarching goal of achieving real-time, end-to-end automation in irrigation management</t>
+          <t>â€¢ Emphasize the need for further innovation and exploration in real-time, automated irrigation systems</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({key takeaways} OR {main conclusions}) AND ({real-time monitoring} OR {real-time decision-making}) AND ({irrigation scheduling} OR {irrigation control}) AND ({automated systems} OR {autonomous systems}))</t>
+          <t>TITLE-ABS-KEY(({innovation emphasis} OR {innovation importance}) AND ({real-time monitoring} OR {real-time control}) AND ({technological innovations} OR {scientific innovations}) AND ({irrigation scheduling} OR {irrigation decision support}))</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -3370,16 +3372,16 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3394,12 +3396,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>â€¢ Summarize the key insights gained from the question-driven review, emphasizing how each section contributes to the overarching goal of achieving real-time, end-to-end automation in irrigation management</t>
+          <t>â€¢ Emphasize the need for further innovation and exploration in real-time, automated irrigation systems</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({knowledge integration} OR {understanding integration}) AND ({real-time automation} OR {dynamic automation}) AND ({irrigation performance} OR {irrigation productivity}) AND ({integrated management} OR {holistic management}))</t>
+          <t>TITLE-ABS(({exploration emphasis} OR {exploration importance}) AND ({smart farming systems} OR {precision agriculture systems}) AND ({upcoming challenges} OR {future opportunities}) AND ({sustainable intensification} OR {ecological intensification}))</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -3408,16 +3410,16 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3432,12 +3434,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>â€¢ Summarize the key insights gained from the question-driven review, emphasizing how each section contributes to the overarching goal of achieving real-time, end-to-end automation in irrigation management</t>
+          <t>â€¢ Emphasize the need for further innovation and exploration in real-time, automated irrigation systems</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({review conclusions} OR {review takeaways}) AND ({real-time control} OR {real-time decision support}) AND ({irrigation efficiency} OR {water use efficiency}) AND ({fully automated systems} OR {fully autonomous systems}))</t>
+          <t>TITLE-ABS-KEY(({novel techniques} OR {innovative techniques}) AND ({irrigation performance optimization} OR {irrigation productivity optimization}) AND ({research advancements} OR {technological advancements}) AND ({water productivity} OR {water footprint}))</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -3446,16 +3448,16 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3470,12 +3472,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>â€¢ Summarize the key insights gained from the question-driven review, emphasizing how each section contributes to the overarching goal of achieving real-time, end-to-end automation in irrigation management</t>
+          <t>â€¢ Emphasize the need for further innovation and exploration in real-time, automated irrigation systems</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({review summary} OR {review synthesis}) AND ({key insights} OR {main findings}) AND ({real-time automation} OR {end-to-end automation}) AND ({irrigation management} OR {precision agriculture}))</t>
+          <t>TITLE-ABS(({cutting-edge innovations} OR {pioneering innovations}) AND ({precision irrigation management} OR {site-specific irrigation management}) AND ({breakthrough technologies} OR {disruptive technologies}) AND ({crop water requirements} OR {irrigation water requirements}))</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -3484,16 +3486,16 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3508,12 +3510,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>â€¢ Summarize the key insights gained from the question-driven review, emphasizing how each section contributes to the overarching goal of achieving real-time, end-to-end automation in irrigation management</t>
+          <t>â€¢ Emphasize the need for further innovation and exploration in real-time, automated irrigation systems</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({section contributions} OR {thematic contributions}) AND ({overarching goal} OR {ultimate objective}) AND ({smart irrigation} OR {intelligent irrigation}) AND ({integrated systems} OR {holistic systems}))</t>
+          <t>TITLE-ABS-KEY(({inventive approaches} OR {groundbreaking approaches}) AND ({fully automated irrigation} OR {fully autonomous irrigation}) AND ({future directions} OR {future prospects}) AND ({agricultural water management} OR {irrigation water management}))</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -3522,16 +3524,16 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
